--- a/BackTest/2020-01-14 BackTest LRC.xlsx
+++ b/BackTest/2020-01-14 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,19 @@
         <v>145047.1685</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>26.59</v>
+      </c>
+      <c r="J8" t="n">
+        <v>26.59</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +686,23 @@
         <v>107525.2235</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>26.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +727,23 @@
         <v>105458.2885</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>26.69</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +803,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +836,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +869,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +902,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +935,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +968,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1001,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1034,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1067,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1100,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1133,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1166,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1199,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1232,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1265,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1298,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1331,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1364,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,22 +1395,15 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="K30" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1504,26 +1428,15 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K31" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1548,26 +1461,15 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K32" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,22 +1494,15 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K33" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1632,26 +1527,15 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K34" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1676,26 +1560,15 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K35" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,22 +1593,15 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K36" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1760,26 +1626,15 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="K37" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1806,22 +1661,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1846,26 +1692,15 @@
         <v>-74001.40365968645</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>26.57</v>
-      </c>
-      <c r="K39" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1890,24 +1725,19 @@
         <v>-152748.3647596865</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="J40" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1932,26 +1762,21 @@
         <v>-141688.5845596865</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>26.22</v>
-      </c>
-      <c r="K41" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1978,22 +1803,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2020,22 +1842,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2062,22 +1881,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2104,22 +1920,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2146,22 +1959,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2188,22 +1998,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2228,26 +2035,21 @@
         <v>-251137.4629596865</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="K48" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2272,26 +2074,23 @@
         <v>-250467.0187596865</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>26.05</v>
       </c>
       <c r="J49" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="K49" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2316,26 +2115,23 @@
         <v>-250467.0187596865</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="J50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2360,26 +2156,23 @@
         <v>-103298.3815596865</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="J51" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2404,26 +2197,23 @@
         <v>-84601.26555968646</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="J52" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2448,26 +2238,23 @@
         <v>-92835.90955968646</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>26.59</v>
       </c>
       <c r="J53" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="K53" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2492,26 +2279,23 @@
         <v>-46652.04815968646</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="J54" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2536,26 +2320,23 @@
         <v>-55735.84375968646</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>26.9</v>
       </c>
       <c r="J55" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K55" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2580,26 +2361,23 @@
         <v>-3635.843759686461</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="J56" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K56" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>26.58</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2626,22 +2404,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2668,22 +2443,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2710,22 +2482,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2752,22 +2521,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2794,22 +2560,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2836,22 +2599,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2878,22 +2638,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2920,22 +2677,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2962,22 +2716,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3004,22 +2755,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3046,22 +2794,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3088,22 +2833,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3130,22 +2872,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3172,22 +2911,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3214,22 +2950,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3256,22 +2989,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3298,22 +3028,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3340,22 +3067,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3382,22 +3106,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3424,22 +3145,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3466,22 +3184,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3508,22 +3223,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3550,22 +3262,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3592,22 +3301,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3634,22 +3340,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3676,22 +3379,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3718,22 +3418,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3760,22 +3457,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3802,22 +3496,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3844,22 +3535,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3886,22 +3574,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3928,22 +3613,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3970,22 +3652,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4012,22 +3691,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4054,22 +3730,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4096,22 +3769,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4138,22 +3808,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4180,22 +3847,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4222,22 +3886,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4264,22 +3925,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4306,22 +3964,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4348,22 +4003,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4390,22 +4042,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4432,22 +4081,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4474,22 +4120,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4516,22 +4159,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4558,22 +4198,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4600,22 +4237,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4642,22 +4276,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4684,22 +4315,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4726,22 +4354,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4768,22 +4393,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4810,22 +4432,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4852,22 +4471,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4894,24 +4510,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1.061215199398044</v>
-      </c>
-      <c r="N111" t="n">
-        <v>1.010562052055828</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4936,18 +4547,21 @@
         <v>-517364.6535868105</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4972,18 +4586,21 @@
         <v>-517326.6535868105</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5008,18 +4625,21 @@
         <v>-517268.6535868105</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5044,18 +4664,21 @@
         <v>-502999.6312343004</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.043532731376975</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5080,18 +4703,15 @@
         <v>-499956.9127343004</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5116,18 +4736,15 @@
         <v>-499937.9127343004</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5152,18 +4769,15 @@
         <v>-500116.8000343004</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5188,18 +4802,15 @@
         <v>-500098.8000343004</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5224,18 +4835,15 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5260,18 +4868,15 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5296,18 +4901,15 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5332,20 +4934,17 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LRC.xlsx
+++ b/BackTest/2020-01-14 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>145047.1685</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -686,19 +682,11 @@
         <v>107525.2235</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,19 +715,11 @@
         <v>105458.2885</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="J10" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -900,7 +880,7 @@
         <v>94700.75019999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -933,7 +913,7 @@
         <v>109177.3063403135</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -966,7 +946,7 @@
         <v>107037.3063403135</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -999,7 +979,7 @@
         <v>110064.2463403135</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1032,7 +1012,7 @@
         <v>110064.2463403135</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1065,7 +1045,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1098,7 +1078,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1131,7 +1111,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1164,7 +1144,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1197,7 +1177,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1263,7 +1243,7 @@
         <v>-54020.29285968645</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1395,7 +1375,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1461,7 +1441,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1494,7 +1474,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1527,7 +1507,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1560,7 +1540,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1593,7 +1573,7 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1626,7 +1606,7 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1725,14 +1705,10 @@
         <v>-152748.3647596865</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="J40" t="n">
-        <v>26.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1765,574 +1741,494 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="C42" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="D42" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1956</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-143644.5845596865</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-142264.5845596865</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="C44" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="D44" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="E44" t="n">
+        <v>26.53</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-143644.5845596865</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1172</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-144816.5845596865</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>25079.7907</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-169896.3752596865</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="C47" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="E47" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="F47" t="n">
+        <v>36171.4563</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-206067.8315596865</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="C48" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="D48" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="E48" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="F48" t="n">
+        <v>45069.6314</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-251137.4629596865</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>670.4442</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-250467.0187596865</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>13925.8467</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-250467.0187596865</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>147168.6372</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-103298.3815596865</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="C52" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="D52" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E52" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18697.116</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-84601.26555968646</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C53" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8234.644</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-92835.90955968646</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="C54" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="F54" t="n">
+        <v>46183.8614</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-46652.04815968646</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="C55" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>26.51</v>
+      </c>
+      <c r="E55" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9083.795599999999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-55735.84375968646</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="C42" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="D42" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="E42" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1956</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-143644.5845596865</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D43" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="E43" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1380</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-142264.5845596865</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="C44" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="D44" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="E44" t="n">
-        <v>26.53</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1380</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-143644.5845596865</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C45" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D45" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E45" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1172</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-144816.5845596865</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>25079.7907</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-169896.3752596865</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="C47" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="D47" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="E47" t="n">
-        <v>26.08</v>
-      </c>
-      <c r="F47" t="n">
-        <v>36171.4563</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-206067.8315596865</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="C48" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="D48" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="E48" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="F48" t="n">
-        <v>45069.6314</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-251137.4629596865</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>670.4442</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-250467.0187596865</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="J49" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>13925.8467</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-250467.0187596865</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="C51" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D51" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E51" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F51" t="n">
-        <v>147168.6372</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-103298.3815596865</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>26.49</v>
-      </c>
-      <c r="C52" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="D52" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="E52" t="n">
-        <v>26.49</v>
-      </c>
-      <c r="F52" t="n">
-        <v>18697.116</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-84601.26555968646</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C53" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>8234.644</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-92835.90955968646</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="J53" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="C54" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>26.59</v>
-      </c>
-      <c r="F54" t="n">
-        <v>46183.8614</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-46652.04815968646</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>26.51</v>
-      </c>
-      <c r="C55" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D55" t="n">
-        <v>26.51</v>
-      </c>
-      <c r="E55" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>9083.795599999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-55735.84375968646</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2361,14 +2257,10 @@
         <v>-3635.843759686461</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>26.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2402,12 +2294,10 @@
         <v>-150747.1433596865</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2441,12 +2331,10 @@
         <v>-236973.2710596864</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,9 +2371,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,12 +2405,10 @@
         <v>-74343.57685968644</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2558,12 +2442,10 @@
         <v>-128938.1547596864</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,9 +2482,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,9 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2675,12 +2553,10 @@
         <v>-160819.8594196517</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2714,12 +2590,10 @@
         <v>-149663.3486196517</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,9 +2630,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2795,9 +2667,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2831,20 +2701,16 @@
         <v>-174824.5738196517</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>26.58</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2870,17 +2736,11 @@
         <v>-302151.6890196517</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2909,17 +2769,11 @@
         <v>-302151.6890196517</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2951,14 +2805,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2990,14 +2838,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2871,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2904,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3107,14 +2937,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3146,14 +2970,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3185,14 +3003,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +3036,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3263,14 +3069,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +3102,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3341,14 +3135,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3380,14 +3168,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +3201,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3458,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3497,14 +3267,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3536,14 +3300,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3575,14 +3333,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3614,14 +3366,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3653,14 +3399,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3692,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3731,14 +3465,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3770,14 +3498,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3809,14 +3531,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3848,14 +3564,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3887,14 +3597,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3926,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3965,14 +3663,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4004,14 +3696,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4043,14 +3729,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4082,14 +3762,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4121,14 +3795,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4160,14 +3828,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4199,14 +3861,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4238,14 +3894,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4277,14 +3927,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4316,14 +3960,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4355,14 +3993,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4394,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4433,14 +4059,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4472,14 +4092,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +4125,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4547,17 +4155,11 @@
         <v>-517364.6535868105</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4586,17 +4188,11 @@
         <v>-517326.6535868105</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4625,17 +4221,11 @@
         <v>-517268.6535868105</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4664,19 +4254,13 @@
         <v>-502999.6312343004</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>1.043532731376975</v>
+        <v>1</v>
       </c>
       <c r="M115" t="inlineStr"/>
     </row>
@@ -4703,7 +4287,7 @@
         <v>-499956.9127343004</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4736,7 +4320,7 @@
         <v>-499937.9127343004</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4769,7 +4353,7 @@
         <v>-500116.8000343004</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4802,7 +4386,7 @@
         <v>-500098.8000343004</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4835,7 +4419,7 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4868,10 +4452,14 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="J121" t="n">
+        <v>28.19</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4901,11 +4489,17 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4934,17 +4528,25 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>27</v>
+      </c>
+      <c r="J123" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LRC.xlsx
+++ b/BackTest/2020-01-14 BackTest LRC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>94700.75019999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>109177.3063403135</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>107037.3063403135</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>110064.2463403135</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>110064.2463403135</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-54020.29285968645</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-144816.5845596865</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-169896.3752596865</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-206067.8315596865</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,10 +2002,14 @@
         <v>-250467.0187596865</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J49" t="n">
+        <v>26.05</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2041,9 +2045,13 @@
         <v>26.1</v>
       </c>
       <c r="J50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>26.05</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2078,7 +2086,7 @@
         <v>26.1</v>
       </c>
       <c r="J51" t="n">
-        <v>26.1</v>
+        <v>26.05</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2116,14 +2124,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2218,17 +2220,11 @@
         <v>-55735.84375968646</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2261,11 +2257,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2294,15 +2286,11 @@
         <v>-150747.1433596865</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2331,15 +2319,11 @@
         <v>-236973.2710596864</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2372,11 +2356,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2405,15 +2385,11 @@
         <v>-74343.57685968644</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2442,15 +2418,11 @@
         <v>-128938.1547596864</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2483,11 +2455,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2520,11 +2488,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2553,15 +2517,11 @@
         <v>-160819.8594196517</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2590,15 +2550,11 @@
         <v>-149663.3486196517</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2631,11 +2587,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2668,11 +2620,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2701,16 +2649,14 @@
         <v>-174824.5738196517</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
       <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2736,7 +2682,7 @@
         <v>-302151.6890196517</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2769,7 +2715,7 @@
         <v>-302151.6890196517</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3627,7 +3573,7 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3660,7 +3606,7 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3693,7 +3639,7 @@
         <v>-390736.6359868104</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4452,14 +4398,10 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>28.19</v>
-      </c>
-      <c r="J121" t="n">
-        <v>28.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4492,14 +4434,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>28.19</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4528,25 +4464,17 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>27</v>
-      </c>
-      <c r="J123" t="n">
-        <v>28.19</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LRC.xlsx
+++ b/BackTest/2020-01-14 BackTest LRC.xlsx
@@ -2002,14 +2002,10 @@
         <v>-250467.0187596865</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="J49" t="n">
-        <v>26.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2045,13 +2041,9 @@
         <v>26.1</v>
       </c>
       <c r="J50" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2086,7 +2078,7 @@
         <v>26.1</v>
       </c>
       <c r="J51" t="n">
-        <v>26.05</v>
+        <v>26.1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2124,8 +2116,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -3045,10 +3043,14 @@
         <v>-349412.2117196518</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>26.9</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3081,8 +3083,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,11 +3119,19 @@
         <v>-349393.2117196518</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27.11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3144,11 +3160,19 @@
         <v>-355800.8050868104</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27.11</v>
+      </c>
+      <c r="J83" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,11 +3201,19 @@
         <v>-355800.8050868104</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3213,8 +3245,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +3281,19 @@
         <v>-355755.8844868104</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3276,11 +3322,19 @@
         <v>-376669.9146868104</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>27</v>
+      </c>
+      <c r="J87" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3309,11 +3363,19 @@
         <v>-378178.4142868104</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="J88" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3404,19 @@
         <v>-374520.3332868104</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="J89" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3445,19 @@
         <v>-379269.6708868104</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="J90" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,11 +3486,19 @@
         <v>-370573.5898868104</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="J91" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3527,19 @@
         <v>-415573.5898868104</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J92" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,11 +3568,19 @@
         <v>-474017.0773868104</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="J93" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3609,19 @@
         <v>-408124.3816868104</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="J94" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3540,11 +3650,19 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="J95" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,11 +3691,19 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,11 +3732,19 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,11 +3773,19 @@
         <v>-390736.6359868104</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3814,19 @@
         <v>-390736.6359868104</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="J99" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3705,11 +3855,19 @@
         <v>-409930.6468868104</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="J100" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3896,19 @@
         <v>-409892.6468868104</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="J101" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,11 +3937,19 @@
         <v>-410536.5068868104</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>27.02</v>
+      </c>
+      <c r="J102" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,11 +3978,19 @@
         <v>-400691.2781868104</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3837,11 +4019,19 @@
         <v>-400654.2781868104</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="J104" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3870,11 +4060,19 @@
         <v>-415116.9109868105</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="J105" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3903,11 +4101,19 @@
         <v>-411659.9539868105</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J106" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3936,11 +4142,19 @@
         <v>-411483.9539868105</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="J107" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3969,11 +4183,19 @@
         <v>-386170.4662868105</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4005,8 +4227,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4038,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4068,11 +4302,19 @@
         <v>-353474.7533868105</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="J111" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4101,13 +4343,19 @@
         <v>-517364.6535868105</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0.991282527881041</v>
       </c>
       <c r="M112" t="inlineStr"/>
     </row>
@@ -4134,7 +4382,7 @@
         <v>-517326.6535868105</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4167,7 +4415,7 @@
         <v>-517268.6535868105</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4200,7 +4448,7 @@
         <v>-502999.6312343004</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4233,7 +4481,7 @@
         <v>-499956.9127343004</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4266,10 +4514,14 @@
         <v>-499937.9127343004</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="J117" t="n">
+        <v>28.09</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
@@ -4299,11 +4551,17 @@
         <v>-500116.8000343004</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4332,11 +4590,19 @@
         <v>-500098.8000343004</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="J119" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4365,11 +4631,19 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>27.19</v>
+      </c>
+      <c r="J120" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,11 +4672,19 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="J121" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,11 +4713,17 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,11 +4752,19 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>27</v>
+      </c>
+      <c r="J123" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-14 BackTest LRC.xlsx
+++ b/BackTest/2020-01-14 BackTest LRC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4687.1605</v>
       </c>
       <c r="G2" t="n">
-        <v>118872.7661</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>14297.5864</v>
       </c>
       <c r="G3" t="n">
-        <v>104575.1797</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>11923.784</v>
       </c>
       <c r="G4" t="n">
-        <v>116498.9637</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1270</v>
       </c>
       <c r="G5" t="n">
-        <v>115228.9637</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>9780</v>
       </c>
       <c r="G6" t="n">
-        <v>105448.9637</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5182</v>
       </c>
       <c r="G7" t="n">
-        <v>110630.9637</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>34416.2048</v>
       </c>
       <c r="G8" t="n">
-        <v>145047.1685</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>37521.945</v>
       </c>
       <c r="G9" t="n">
-        <v>107525.2235</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2066.935</v>
       </c>
       <c r="G10" t="n">
-        <v>105458.2885</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>8859.534</v>
       </c>
       <c r="G11" t="n">
-        <v>96598.7545</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2767.72</v>
       </c>
       <c r="G12" t="n">
-        <v>99366.4745</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2544.7243</v>
       </c>
       <c r="G13" t="n">
-        <v>96821.75019999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>96840.75019999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2140</v>
       </c>
       <c r="G15" t="n">
-        <v>94700.75019999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>14476.55614031355</v>
       </c>
       <c r="G16" t="n">
-        <v>109177.3063403135</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2140</v>
       </c>
       <c r="G17" t="n">
-        <v>107037.3063403135</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3026.94</v>
       </c>
       <c r="G18" t="n">
-        <v>110064.2463403135</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>4842.8235</v>
       </c>
       <c r="G19" t="n">
-        <v>110064.2463403135</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>139055.4381</v>
       </c>
       <c r="G20" t="n">
-        <v>-28991.19175968645</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>39777.3402</v>
       </c>
       <c r="G21" t="n">
-        <v>-28991.19175968645</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>67002.98759999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-28991.19175968645</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>24003.5512</v>
       </c>
       <c r="G23" t="n">
-        <v>-28991.19175968645</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>12710</v>
       </c>
       <c r="G24" t="n">
-        <v>-28991.19175968645</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1282.3849</v>
       </c>
       <c r="G25" t="n">
-        <v>-27708.80685968645</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>26311.486</v>
       </c>
       <c r="G26" t="n">
-        <v>-54020.29285968645</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3243.1251</v>
       </c>
       <c r="G27" t="n">
-        <v>-54020.29285968645</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2601.8363</v>
       </c>
       <c r="G28" t="n">
-        <v>-54020.29285968645</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>7398.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>-54020.29285968645</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1820.141</v>
       </c>
       <c r="G30" t="n">
-        <v>-52200.15185968645</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>1282.3849</v>
       </c>
       <c r="G31" t="n">
-        <v>-52200.15185968645</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1655</v>
       </c>
       <c r="G32" t="n">
-        <v>-52200.15185968645</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>6501.0098</v>
       </c>
       <c r="G33" t="n">
-        <v>-52200.15185968645</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2446.2168</v>
       </c>
       <c r="G34" t="n">
-        <v>-52200.15185968645</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3100.7181</v>
       </c>
       <c r="G35" t="n">
-        <v>-52200.15185968645</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>35944.2518</v>
       </c>
       <c r="G36" t="n">
-        <v>-88144.40365968645</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1342.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>-88144.40365968645</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>48135.5584</v>
       </c>
       <c r="G38" t="n">
-        <v>-88144.40365968645</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>14143</v>
       </c>
       <c r="G39" t="n">
-        <v>-74001.40365968645</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>78746.9611</v>
       </c>
       <c r="G40" t="n">
-        <v>-152748.3647596865</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>11059.7802</v>
       </c>
       <c r="G41" t="n">
-        <v>-141688.5845596865</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1956</v>
       </c>
       <c r="G42" t="n">
-        <v>-143644.5845596865</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1380</v>
       </c>
       <c r="G43" t="n">
-        <v>-142264.5845596865</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1380</v>
       </c>
       <c r="G44" t="n">
-        <v>-143644.5845596865</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1172</v>
       </c>
       <c r="G45" t="n">
-        <v>-144816.5845596865</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>25079.7907</v>
       </c>
       <c r="G46" t="n">
-        <v>-169896.3752596865</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>36171.4563</v>
       </c>
       <c r="G47" t="n">
-        <v>-206067.8315596865</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>45069.6314</v>
       </c>
       <c r="G48" t="n">
-        <v>-251137.4629596865</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,19 @@
         <v>670.4442</v>
       </c>
       <c r="G49" t="n">
-        <v>-250467.0187596865</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>26.05</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26.05</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,22 +1887,23 @@
         <v>13925.8467</v>
       </c>
       <c r="G50" t="n">
-        <v>-250467.0187596865</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>26.1</v>
       </c>
       <c r="I50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>26.05</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2069,26 +1925,23 @@
         <v>147168.6372</v>
       </c>
       <c r="G51" t="n">
-        <v>-103298.3815596865</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>26.1</v>
       </c>
       <c r="I51" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>26.05</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2110,24 +1963,23 @@
         <v>18697.116</v>
       </c>
       <c r="G52" t="n">
-        <v>-84601.26555968646</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>26.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2149,18 +2001,23 @@
         <v>8234.644</v>
       </c>
       <c r="G53" t="n">
-        <v>-92835.90955968646</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>26.59</v>
+      </c>
+      <c r="I53" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2182,18 +2039,23 @@
         <v>46183.8614</v>
       </c>
       <c r="G54" t="n">
-        <v>-46652.04815968646</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>26.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2215,18 +2077,21 @@
         <v>9083.795599999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-55735.84375968646</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2248,18 +2113,23 @@
         <v>52100</v>
       </c>
       <c r="G56" t="n">
-        <v>-3635.843759686461</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>26.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2281,18 +2151,21 @@
         <v>147111.2996</v>
       </c>
       <c r="G57" t="n">
-        <v>-150747.1433596865</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2314,18 +2187,21 @@
         <v>86226.1277</v>
       </c>
       <c r="G58" t="n">
-        <v>-236973.2710596864</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2347,18 +2223,21 @@
         <v>19044.8412</v>
       </c>
       <c r="G59" t="n">
-        <v>-236973.2710596864</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2380,18 +2259,21 @@
         <v>162629.6942</v>
       </c>
       <c r="G60" t="n">
-        <v>-74343.57685968644</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2413,18 +2295,21 @@
         <v>54594.5779</v>
       </c>
       <c r="G61" t="n">
-        <v>-128938.1547596864</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2446,18 +2331,21 @@
         <v>32029.7547</v>
       </c>
       <c r="G62" t="n">
-        <v>-96908.40005968644</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2479,18 +2367,21 @@
         <v>165143.6835</v>
       </c>
       <c r="G63" t="n">
-        <v>-262052.0835596864</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1.037610364683301</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2512,18 +2403,15 @@
         <v>101232.2241400347</v>
       </c>
       <c r="G64" t="n">
-        <v>-160819.8594196517</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2545,18 +2433,15 @@
         <v>11156.5108</v>
       </c>
       <c r="G65" t="n">
-        <v>-149663.3486196517</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2578,18 +2463,15 @@
         <v>23294.2543</v>
       </c>
       <c r="G66" t="n">
-        <v>-126369.0943196517</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2611,18 +2493,15 @@
         <v>4108.579</v>
       </c>
       <c r="G67" t="n">
-        <v>-130477.6733196517</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,18 +2523,15 @@
         <v>44346.9005</v>
       </c>
       <c r="G68" t="n">
-        <v>-174824.5738196517</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2677,18 +2553,15 @@
         <v>127327.1152</v>
       </c>
       <c r="G69" t="n">
-        <v>-302151.6890196517</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2710,18 +2583,15 @@
         <v>41945.2913</v>
       </c>
       <c r="G70" t="n">
-        <v>-302151.6890196517</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2743,18 +2613,15 @@
         <v>5065.7392</v>
       </c>
       <c r="G71" t="n">
-        <v>-307217.4282196517</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2776,18 +2643,15 @@
         <v>12238.1173</v>
       </c>
       <c r="G72" t="n">
-        <v>-319455.5455196517</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2809,18 +2673,15 @@
         <v>8663.5286</v>
       </c>
       <c r="G73" t="n">
-        <v>-328119.0741196517</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2842,18 +2703,15 @@
         <v>11059.2966</v>
       </c>
       <c r="G74" t="n">
-        <v>-317059.7775196517</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2875,18 +2733,15 @@
         <v>4827.4613</v>
       </c>
       <c r="G75" t="n">
-        <v>-321887.2388196518</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2908,18 +2763,15 @@
         <v>1274</v>
       </c>
       <c r="G76" t="n">
-        <v>-320613.2388196518</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2941,18 +2793,15 @@
         <v>28798.9729</v>
       </c>
       <c r="G77" t="n">
-        <v>-349412.2117196518</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2974,18 +2823,15 @@
         <v>12087.4861</v>
       </c>
       <c r="G78" t="n">
-        <v>-349412.2117196518</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3007,18 +2853,15 @@
         <v>8685.3518</v>
       </c>
       <c r="G79" t="n">
-        <v>-349412.2117196518</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3040,22 +2883,15 @@
         <v>3574.4288</v>
       </c>
       <c r="G80" t="n">
-        <v>-349412.2117196518</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3077,24 +2913,15 @@
         <v>19</v>
       </c>
       <c r="G81" t="n">
-        <v>-349393.2117196518</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3116,26 +2943,15 @@
         <v>53891.8133</v>
       </c>
       <c r="G82" t="n">
-        <v>-349393.2117196518</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27.11</v>
-      </c>
-      <c r="J82" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3157,26 +2973,15 @@
         <v>6407.593367158672</v>
       </c>
       <c r="G83" t="n">
-        <v>-355800.8050868104</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>27.11</v>
-      </c>
-      <c r="J83" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3198,26 +3003,15 @@
         <v>3232.9024</v>
       </c>
       <c r="G84" t="n">
-        <v>-355800.8050868104</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3239,24 +3033,15 @@
         <v>15151.6164</v>
       </c>
       <c r="G85" t="n">
-        <v>-355800.8050868104</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3278,26 +3063,15 @@
         <v>44.9206</v>
       </c>
       <c r="G86" t="n">
-        <v>-355755.8844868104</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3319,26 +3093,15 @@
         <v>20914.0302</v>
       </c>
       <c r="G87" t="n">
-        <v>-376669.9146868104</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>27</v>
-      </c>
-      <c r="J87" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3360,26 +3123,15 @@
         <v>1508.4996</v>
       </c>
       <c r="G88" t="n">
-        <v>-378178.4142868104</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>26.84</v>
-      </c>
-      <c r="J88" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3401,26 +3153,15 @@
         <v>3658.081</v>
       </c>
       <c r="G89" t="n">
-        <v>-374520.3332868104</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>26.68</v>
-      </c>
-      <c r="J89" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3442,26 +3183,15 @@
         <v>4749.3376</v>
       </c>
       <c r="G90" t="n">
-        <v>-379269.6708868104</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="J90" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3483,26 +3213,15 @@
         <v>8696.081</v>
       </c>
       <c r="G91" t="n">
-        <v>-370573.5898868104</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="J91" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3524,26 +3243,15 @@
         <v>45000</v>
       </c>
       <c r="G92" t="n">
-        <v>-415573.5898868104</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3565,26 +3273,15 @@
         <v>58443.4875</v>
       </c>
       <c r="G93" t="n">
-        <v>-474017.0773868104</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26.77</v>
-      </c>
-      <c r="J93" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3606,26 +3303,15 @@
         <v>65892.6957</v>
       </c>
       <c r="G94" t="n">
-        <v>-408124.3816868104</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>26.66</v>
-      </c>
-      <c r="J94" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3647,26 +3333,15 @@
         <v>15332.9948</v>
       </c>
       <c r="G95" t="n">
-        <v>-392791.3868868104</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="J95" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3688,26 +3363,15 @@
         <v>5788.4169</v>
       </c>
       <c r="G96" t="n">
-        <v>-392791.3868868104</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3729,26 +3393,15 @@
         <v>10139.7903</v>
       </c>
       <c r="G97" t="n">
-        <v>-392791.3868868104</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3770,26 +3423,15 @@
         <v>2054.7509</v>
       </c>
       <c r="G98" t="n">
-        <v>-390736.6359868104</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3811,26 +3453,15 @@
         <v>3724</v>
       </c>
       <c r="G99" t="n">
-        <v>-390736.6359868104</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="J99" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3852,26 +3483,15 @@
         <v>19194.0109</v>
       </c>
       <c r="G100" t="n">
-        <v>-409930.6468868104</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="J100" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3893,26 +3513,15 @@
         <v>38</v>
       </c>
       <c r="G101" t="n">
-        <v>-409892.6468868104</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>26.99</v>
-      </c>
-      <c r="J101" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3934,26 +3543,15 @@
         <v>643.86</v>
       </c>
       <c r="G102" t="n">
-        <v>-410536.5068868104</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="J102" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3975,26 +3573,15 @@
         <v>9845.2287</v>
       </c>
       <c r="G103" t="n">
-        <v>-400691.2781868104</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4016,26 +3603,15 @@
         <v>37</v>
       </c>
       <c r="G104" t="n">
-        <v>-400654.2781868104</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>26.98</v>
-      </c>
-      <c r="J104" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4057,26 +3633,15 @@
         <v>14462.6328</v>
       </c>
       <c r="G105" t="n">
-        <v>-415116.9109868105</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>27.01</v>
-      </c>
-      <c r="J105" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4098,26 +3663,15 @@
         <v>3456.957</v>
       </c>
       <c r="G106" t="n">
-        <v>-411659.9539868105</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="J106" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4139,26 +3693,15 @@
         <v>176</v>
       </c>
       <c r="G107" t="n">
-        <v>-411483.9539868105</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="J107" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4180,26 +3723,15 @@
         <v>25313.4877</v>
       </c>
       <c r="G108" t="n">
-        <v>-386170.4662868105</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="J108" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4221,24 +3753,15 @@
         <v>18415.713</v>
       </c>
       <c r="G109" t="n">
-        <v>-367754.7532868105</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4260,24 +3783,15 @@
         <v>18</v>
       </c>
       <c r="G110" t="n">
-        <v>-367772.7532868105</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4299,26 +3813,15 @@
         <v>14297.9999</v>
       </c>
       <c r="G111" t="n">
-        <v>-353474.7533868105</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="J111" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4340,24 +3843,15 @@
         <v>163889.9002</v>
       </c>
       <c r="G112" t="n">
-        <v>-517364.6535868105</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>0.991282527881041</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4379,18 +3873,15 @@
         <v>38</v>
       </c>
       <c r="G113" t="n">
-        <v>-517326.6535868105</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4412,18 +3903,15 @@
         <v>58</v>
       </c>
       <c r="G114" t="n">
-        <v>-517268.6535868105</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4445,18 +3933,15 @@
         <v>14269.02235251008</v>
       </c>
       <c r="G115" t="n">
-        <v>-502999.6312343004</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4478,18 +3963,15 @@
         <v>3042.7185</v>
       </c>
       <c r="G116" t="n">
-        <v>-499956.9127343004</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4511,22 +3993,15 @@
         <v>19</v>
       </c>
       <c r="G117" t="n">
-        <v>-499937.9127343004</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="J117" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4548,24 +4023,15 @@
         <v>178.8873</v>
       </c>
       <c r="G118" t="n">
-        <v>-500116.8000343004</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4587,26 +4053,15 @@
         <v>18</v>
       </c>
       <c r="G119" t="n">
-        <v>-500098.8000343004</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>26.81</v>
-      </c>
-      <c r="J119" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4628,26 +4083,15 @@
         <v>10120.9534</v>
       </c>
       <c r="G120" t="n">
-        <v>-489977.8466343004</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>27.19</v>
-      </c>
-      <c r="J120" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4669,26 +4113,15 @@
         <v>18</v>
       </c>
       <c r="G121" t="n">
-        <v>-489977.8466343004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>28.19</v>
-      </c>
-      <c r="J121" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4710,24 +4143,15 @@
         <v>96373.0058</v>
       </c>
       <c r="G122" t="n">
-        <v>-586350.8524343004</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4749,26 +4173,15 @@
         <v>11027.357</v>
       </c>
       <c r="G123" t="n">
-        <v>-586350.8524343004</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>27</v>
-      </c>
-      <c r="J123" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
